--- a/symbols.xlsx
+++ b/symbols.xlsx
@@ -1,60 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\scrap-kodal\codal-monthly-report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkApp\codal-monthly-report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE15376-F5FB-49F3-9A96-13660D9924CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="15120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Symbols" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>symbol</t>
   </si>
   <si>
-    <t>کورز</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>isic</t>
+  </si>
+  <si>
+    <t>اپرداز</t>
+  </si>
+  <si>
+    <t>آتيه داده پرداز</t>
+  </si>
+  <si>
+    <t>731002</t>
+  </si>
+  <si>
+    <t>اتاپ</t>
+  </si>
+  <si>
+    <t>افق تامين انرژي پارس</t>
+  </si>
+  <si>
+    <t>751023</t>
+  </si>
+  <si>
+    <t>اتحاد بازار</t>
+  </si>
+  <si>
+    <t>اختصاصي بازارگرداني اتحاد بازار سرمايه</t>
+  </si>
+  <si>
+    <t>46430730</t>
+  </si>
+  <si>
+    <t>اتحاد ثابت</t>
+  </si>
+  <si>
+    <t>اتحاد آرمان اقتصاد</t>
+  </si>
+  <si>
+    <t>46430701</t>
+  </si>
+  <si>
+    <t>اتکاسا</t>
+  </si>
+  <si>
+    <t>بيمه اتکايي سامان</t>
+  </si>
+  <si>
+    <t>660363</t>
+  </si>
+  <si>
+    <t>اتکام</t>
+  </si>
+  <si>
+    <t>بيمه اتکايي امين</t>
+  </si>
+  <si>
+    <t>660306</t>
+  </si>
+  <si>
+    <t>اتکاي</t>
+  </si>
+  <si>
+    <t>بيمه اتکايي ايرانيان</t>
+  </si>
+  <si>
+    <t>660308</t>
+  </si>
+  <si>
+    <t>اتوبوسراني اصفهان</t>
+  </si>
+  <si>
+    <t>واحد اتوبوسراني اصفهان و حومه</t>
+  </si>
+  <si>
+    <t>751174</t>
+  </si>
+  <si>
+    <t>اتوبوسراني تهران</t>
+  </si>
+  <si>
+    <t>اتوبوس راني تهران و حومه</t>
+  </si>
+  <si>
+    <t>751056</t>
+  </si>
+  <si>
+    <t>اتي ساز</t>
+  </si>
+  <si>
+    <t>811589</t>
+  </si>
+  <si>
+    <t>اجداد</t>
+  </si>
+  <si>
+    <t>مرغ اجداد زربال</t>
+  </si>
+  <si>
+    <t>014103</t>
+  </si>
+  <si>
+    <t>احداث</t>
+  </si>
+  <si>
+    <t>پايانه احداث</t>
+  </si>
+  <si>
+    <t>751319</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF676773"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -77,23 +165,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -116,44 +198,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -183,12 +265,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -227,169 +309,463 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="45.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.codal.ir/ReportList.aspx?search&amp;Symbol=%DA%A9%D9%88%D8%B1%D8%B2" xr:uid="{148A9F2B-305F-497A-802F-207FA1F1E735}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:C12 A13:C19 A20:C21 A22:C22" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>